--- a/summaries/nearestGenomes.xlsx
+++ b/summaries/nearestGenomes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t xml:space="preserve">subject</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t xml:space="preserve">nMismatches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nMismatchesPhil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nMismatchesPhilLess</t>
   </si>
   <si>
     <t xml:space="preserve">minPercentCoverage</t>
@@ -623,10 +629,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43911</v>
@@ -643,16 +655,22 @@
       <c r="F2" t="n">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43910</v>
@@ -669,16 +687,22 @@
       <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43912</v>
@@ -695,16 +719,22 @@
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43924</v>
@@ -721,16 +751,22 @@
       <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43917</v>
@@ -747,16 +783,22 @@
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43917</v>
@@ -773,16 +815,22 @@
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43917</v>
@@ -799,16 +847,22 @@
       <c r="F8" t="n">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43917</v>
@@ -825,16 +879,22 @@
       <c r="F9" t="n">
         <v>4</v>
       </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>19</v>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43924</v>
@@ -851,16 +911,22 @@
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43930</v>
@@ -877,16 +943,22 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43930</v>
@@ -903,16 +975,22 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43930</v>
@@ -929,16 +1007,22 @@
       <c r="F13" t="n">
         <v>1</v>
       </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43921</v>
@@ -955,16 +1039,22 @@
       <c r="F14" t="n">
         <v>4</v>
       </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43935</v>
@@ -981,16 +1071,22 @@
       <c r="F15" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s">
-        <v>31</v>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43933</v>
@@ -1007,16 +1103,22 @@
       <c r="F16" t="n">
         <v>4</v>
       </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
-        <v>33</v>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43933</v>
@@ -1033,16 +1135,22 @@
       <c r="F17" t="n">
         <v>4</v>
       </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>33</v>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43933</v>
@@ -1059,16 +1167,22 @@
       <c r="F18" t="n">
         <v>4</v>
       </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>33</v>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43933</v>
@@ -1085,16 +1199,22 @@
       <c r="F19" t="n">
         <v>4</v>
       </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43943</v>
@@ -1111,16 +1231,22 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>38</v>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43941</v>
@@ -1137,16 +1263,22 @@
       <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43941</v>
@@ -1163,16 +1295,22 @@
       <c r="F22" t="n">
         <v>4</v>
       </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
-        <v>19</v>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43941</v>
@@ -1189,16 +1327,22 @@
       <c r="F23" t="n">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" t="s">
-        <v>42</v>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43941</v>
@@ -1215,16 +1359,22 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" t="s">
-        <v>19</v>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43937</v>
@@ -1241,16 +1391,22 @@
       <c r="F25" t="n">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" t="s">
-        <v>19</v>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43937</v>
@@ -1267,16 +1423,22 @@
       <c r="F26" t="n">
         <v>0</v>
       </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" t="s">
-        <v>19</v>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43940</v>
@@ -1293,16 +1455,22 @@
       <c r="F27" t="n">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" t="s">
-        <v>42</v>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43947</v>
@@ -1319,16 +1487,22 @@
       <c r="F28" t="n">
         <v>0</v>
       </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" t="s">
-        <v>48</v>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43947</v>
@@ -1345,16 +1519,22 @@
       <c r="F29" t="n">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" t="s">
-        <v>48</v>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43947</v>
@@ -1371,16 +1551,22 @@
       <c r="F30" t="n">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" t="s">
-        <v>48</v>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43947</v>
@@ -1397,16 +1583,22 @@
       <c r="F31" t="n">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" t="s">
-        <v>48</v>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43941</v>
@@ -1423,16 +1615,22 @@
       <c r="F32" t="n">
         <v>3</v>
       </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" t="s">
-        <v>42</v>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43934</v>
@@ -1449,16 +1647,22 @@
       <c r="F33" t="n">
         <v>2</v>
       </c>
-      <c r="G33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" t="s">
-        <v>54</v>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43934</v>
@@ -1475,16 +1679,22 @@
       <c r="F34" t="n">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" t="s">
-        <v>54</v>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43934</v>
@@ -1501,16 +1711,22 @@
       <c r="F35" t="n">
         <v>2</v>
       </c>
-      <c r="G35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" t="s">
-        <v>54</v>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43948</v>
@@ -1527,16 +1743,22 @@
       <c r="F36" t="n">
         <v>2</v>
       </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" t="s">
-        <v>58</v>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43948</v>
@@ -1553,16 +1775,22 @@
       <c r="F37" t="n">
         <v>2</v>
       </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>58</v>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43948</v>
@@ -1579,16 +1807,22 @@
       <c r="F38" t="n">
         <v>2</v>
       </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" t="s">
-        <v>58</v>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43948</v>
@@ -1605,16 +1839,22 @@
       <c r="F39" t="n">
         <v>0</v>
       </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" t="s">
-        <v>62</v>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43952</v>
@@ -1631,16 +1871,22 @@
       <c r="F40" t="n">
         <v>1</v>
       </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" t="s">
-        <v>19</v>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43962</v>
@@ -1657,16 +1903,22 @@
       <c r="F41" t="n">
         <v>1</v>
       </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" t="s">
-        <v>19</v>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43962</v>
@@ -1683,16 +1935,22 @@
       <c r="F42" t="n">
         <v>8</v>
       </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" t="s">
-        <v>66</v>
+      <c r="G42" t="n">
+        <v>7</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43962</v>
@@ -1709,16 +1967,22 @@
       <c r="F43" t="n">
         <v>10</v>
       </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" t="s">
-        <v>66</v>
+      <c r="G43" t="n">
+        <v>9</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43959</v>
@@ -1735,16 +1999,22 @@
       <c r="F44" t="n">
         <v>4</v>
       </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" t="s">
-        <v>69</v>
+      <c r="G44" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43959</v>
@@ -1761,16 +2031,22 @@
       <c r="F45" t="n">
         <v>4</v>
       </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" t="s">
-        <v>69</v>
+      <c r="G45" t="n">
+        <v>6</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43956</v>
@@ -1787,16 +2063,22 @@
       <c r="F46" t="n">
         <v>2</v>
       </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" t="s">
-        <v>19</v>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43956</v>
@@ -1813,16 +2095,22 @@
       <c r="F47" t="n">
         <v>2</v>
       </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" t="s">
-        <v>19</v>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43956</v>
@@ -1839,16 +2127,22 @@
       <c r="F48" t="n">
         <v>2</v>
       </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" t="s">
-        <v>19</v>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43972</v>
@@ -1865,16 +2159,22 @@
       <c r="F49" t="n">
         <v>3</v>
       </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" t="s">
-        <v>75</v>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43972</v>
@@ -1891,16 +2191,22 @@
       <c r="F50" t="n">
         <v>3</v>
       </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" t="s">
-        <v>75</v>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43972</v>
@@ -1917,16 +2223,22 @@
       <c r="F51" t="n">
         <v>3</v>
       </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" t="s">
-        <v>75</v>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>44002</v>
@@ -1943,16 +2255,22 @@
       <c r="F52" t="n">
         <v>7</v>
       </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" t="s">
-        <v>79</v>
+      <c r="G52" t="n">
+        <v>8</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>44002</v>
@@ -1969,16 +2287,22 @@
       <c r="F53" t="n">
         <v>5</v>
       </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" t="s">
-        <v>79</v>
+      <c r="G53" t="n">
+        <v>6</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>44026</v>
@@ -1995,11 +2319,17 @@
       <c r="F54" t="n">
         <v>3</v>
       </c>
-      <c r="G54" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" t="s">
-        <v>82</v>
+      <c r="G54" t="n">
+        <v>5</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
